--- a/数据/results.xlsx
+++ b/数据/results.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\workspace_vscode_python\ExcelLib\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078F81D-C751-4BD7-B762-CBDDEC141EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C143E5A-2F75-47F1-B286-8F622ACBAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="380" windowWidth="18540" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -213,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表1 2023年8月-2024年6月门诊异地慢特病结算交易笔数和人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +214,9 @@
   <si>
     <t>表3 2023年8月-2024年6月三大省份门诊异地慢特病结算交易笔数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1 2023年8月-2024年6月门诊异地慢特病结算交易笔数和人数</t>
   </si>
 </sst>
 </file>
@@ -698,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -711,7 +701,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -729,7 +719,7 @@
     <row r="2" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>
@@ -1367,7 +1357,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2597,7 +2587,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
